--- a/EXCEL/src/EXCELtrail.xlsx
+++ b/EXCEL/src/EXCELtrail.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="22785" windowHeight="4035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -342,12 +343,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/EXCEL/src/EXCELtrail.xlsx
+++ b/EXCEL/src/EXCELtrail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="22785" windowHeight="4035"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="23175" windowHeight="4035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,10 @@
   <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -371,6 +375,7 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EXCEL/src/EXCELtrail.xlsx
+++ b/EXCEL/src/EXCELtrail.xlsx
@@ -17,7 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
+  <si>
+    <t>Md Shabbir</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,13 +351,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
@@ -375,7 +382,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6"/>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EXCEL/src/EXCELtrail.xlsx
+++ b/EXCEL/src/EXCELtrail.xlsx
@@ -17,9 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>Md Shabbir</t>
+  </si>
+  <si>
+    <t>sumit agrawal</t>
+  </si>
+  <si>
+    <t>praveen kumar</t>
+  </si>
+  <si>
+    <t>Rama Krishna</t>
   </si>
 </sst>
 </file>
@@ -354,12 +363,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -386,40 +398,112 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>0</v>
       </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL/src/EXCELtrail.xlsx
+++ b/EXCEL/src/EXCELtrail.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>Md Shabbir</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Rama Krishna</t>
+  </si>
+  <si>
+    <t>Bhargav</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,6 +410,9 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -421,6 +427,9 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -435,6 +444,9 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -449,6 +461,9 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -463,6 +478,9 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -477,6 +495,9 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -491,6 +512,9 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -504,6 +528,9 @@
       </c>
       <c r="D9" t="s">
         <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL/src/EXCELtrail.xlsx
+++ b/EXCEL/src/EXCELtrail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="23175" windowHeight="4035"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="9750" windowHeight="1875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
   <si>
     <t>Md Shabbir</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Bhargav</t>
+  </si>
+  <si>
+    <t>abhishek</t>
   </si>
 </sst>
 </file>
@@ -365,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,6 +416,9 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -430,6 +436,9 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -447,6 +456,9 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -464,6 +476,9 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -481,6 +496,9 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -498,6 +516,9 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -515,6 +536,9 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -531,6 +555,9 @@
       </c>
       <c r="E9" t="s">
         <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
